--- a/doc/服务接口设计文档0324.xlsx
+++ b/doc/服务接口设计文档0324.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="用户注册#" sheetId="3" r:id="rId1"/>
@@ -152,11 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:手机注册
-2：邮箱注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,6 +817,11 @@
   </si>
   <si>
     <t>ReMark需要urldeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:邮箱
+2：手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,6 +1027,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,7 +1082,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1375,28 +1375,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1420,10 +1420,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,12 +1469,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1498,13 +1498,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1544,28 +1544,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1583,20 +1583,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1605,61 +1605,61 @@
     </row>
     <row r="7" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>112</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1677,13 +1677,13 @@
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -1714,28 +1714,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1753,20 +1753,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1774,12 +1774,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -1797,52 +1797,52 @@
     </row>
     <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1873,28 +1873,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -1912,7 +1912,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1934,47 +1934,47 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -1992,13 +1992,13 @@
     </row>
     <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -2031,28 +2031,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2070,7 +2070,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2079,12 +2079,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2101,67 +2101,67 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="15" t="s">
+      <c r="D11" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2192,28 +2192,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2231,20 +2231,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -2253,25 +2253,25 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2289,13 +2289,13 @@
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -2326,28 +2326,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2365,20 +2365,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -2386,12 +2386,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2409,13 +2409,13 @@
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -2446,28 +2446,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2485,7 +2485,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2494,12 +2494,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2515,18 +2515,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2555,28 +2555,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2594,7 +2594,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2615,12 +2615,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2638,13 +2638,13 @@
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -2675,28 +2675,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2714,7 +2714,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2735,12 +2735,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2758,13 +2758,13 @@
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -2784,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2795,28 +2795,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2834,7 +2834,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2843,12 +2843,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2866,13 +2866,13 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -2904,28 +2904,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2943,16 +2943,16 @@
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2980,7 +2980,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2998,12 +2998,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3027,13 +3027,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3042,7 +3042,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3074,28 +3074,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3113,21 +3113,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3145,10 +3145,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
@@ -3157,58 +3157,58 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3237,28 +3237,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3276,10 +3276,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
@@ -3288,77 +3288,77 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -3376,13 +3376,13 @@
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -3414,28 +3414,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3458,12 +3458,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -3481,16 +3481,16 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3521,28 +3521,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3560,37 +3560,37 @@
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3608,16 +3608,16 @@
     </row>
     <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3648,28 +3648,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3687,33 +3687,33 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3731,13 +3731,13 @@
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -3769,28 +3769,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3808,38 +3808,38 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -3857,16 +3857,16 @@
     </row>
     <row r="9" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3900,28 +3900,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3939,49 +3939,49 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>125</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -4000,13 +4000,13 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -4037,28 +4037,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4076,10 +4076,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -4087,12 +4087,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -4110,94 +4110,94 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="B12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4233,28 +4233,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4272,57 +4272,57 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -4340,13 +4340,13 @@
     </row>
     <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="8"/>
     </row>
